--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Local Files\Project\InfosysSpringBoardInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C46FC9A7-3D0C-4D0C-984D-6F75379A3D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B5F50A-A5B6-40EC-B3D0-CCF9C52C0830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{793793EB-A2F4-49DF-BA63-A99ADAF16820}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{793793EB-A2F4-49DF-BA63-A99ADAF16820}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -96,9 +96,6 @@
     <t>As a support lead, I want LLMs to categorize tickets by meaning so that support agents can focus better</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t>Sprint 3</t>
   </si>
   <si>
@@ -442,6 +439,18 @@
   </si>
   <si>
     <t>Changed the categories to only Positive, Negative and Neutral</t>
+  </si>
+  <si>
+    <t>Oct 3 rd</t>
+  </si>
+  <si>
+    <t>Git Hub Documentation</t>
+  </si>
+  <si>
+    <t>Completion of Project</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -900,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29761333-BC20-414B-8551-AD1183CCCEF8}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,7 +966,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>13</v>
@@ -974,7 +983,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>11</v>
@@ -983,7 +992,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>13</v>
@@ -1000,7 +1009,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -1009,7 +1018,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>13</v>
@@ -1023,7 +1032,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>18</v>
@@ -1035,7 +1044,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>13</v>
@@ -1049,10 +1058,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -1061,7 +1070,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>13</v>
@@ -1075,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>16</v>
@@ -1087,7 +1096,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>13</v>
@@ -1095,16 +1104,16 @@
     </row>
     <row r="8" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>11</v>
@@ -1113,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>13</v>
@@ -1121,25 +1130,25 @@
     </row>
     <row r="9" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>13</v>
@@ -1147,16 +1156,16 @@
     </row>
     <row r="10" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>11</v>
@@ -1165,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>13</v>
@@ -1173,25 +1182,25 @@
     </row>
     <row r="11" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>13</v>
@@ -1199,28 +1208,28 @@
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1236,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E0E56-BBBC-4EE4-B70C-E6A3A3BC79E5}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,28 +1265,28 @@
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1285,22 +1294,22 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>13</v>
@@ -1314,22 +1323,22 @@
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>13</v>
@@ -1343,22 +1352,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -1369,25 +1378,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>13</v>
@@ -1398,25 +1407,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -1427,25 +1436,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>13</v>
@@ -1456,25 +1465,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>13</v>
@@ -1485,25 +1494,25 @@
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="D9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -1514,25 +1523,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>13</v>
@@ -1543,25 +1552,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>13</v>
@@ -1572,26 +1581,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8">
         <v>14</v>
@@ -1607,7 +1618,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,30 +1630,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1650,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1664,36 +1675,42 @@
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1704,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBA75A1-4AEB-433F-8A24-A34100E83931}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,31 +1738,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1756,25 +1773,25 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1785,25 +1802,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1811,28 +1828,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1840,23 +1857,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
